--- a/resultado/resumo_por_tag.xlsx
+++ b/resultado/resumo_por_tag.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>TAG</t>
+  </si>
+  <si>
+    <t>consumo_cocho_kg_dia</t>
+  </si>
+  <si>
+    <t>consumo_bebedouro_l_dia</t>
+  </si>
+  <si>
+    <t>visitas_cocho</t>
+  </si>
+  <si>
+    <t>visitas_bebedouro</t>
+  </si>
+  <si>
+    <t>tempo_cocho_min</t>
+  </si>
+  <si>
+    <t>tempo_bebedouro_min</t>
+  </si>
+  <si>
+    <t>peso_medio</t>
+  </si>
+  <si>
+    <t>ganho_peso_diario</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,5316 +397,5292 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I182"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>TAG</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>consumo_cocho_kg_dia</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>consumo_bebedouro_l_dia</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>visitas_cocho</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>visitas_bebedouro</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>tempo_cocho_min</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>tempo_bebedouro_min</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>peso_medio</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>ganho_peso_diario</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>982000445759329</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>26.725</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>17.45</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>39</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>95.72222222222223</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>11.37222222222222</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>549.9583333333334</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>-1.166666666666667</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>982000445759331</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>27.28333333333333</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>28.2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>23.66666666666667</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>2.666666666666667</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>79.78333333333333</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>5.95</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>698.3056666666666</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>-0.38900000000001</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>982000445759332</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>21.675</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>26.55833333333333</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>63.66666666666666</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>3.333333333333333</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>107.3666666666667</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>7.211111111111111</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>591.9723333333333</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>-2.13900000000001</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>982000445759333</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>22.05833333333333</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>21.53333333333333</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>28</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>3.333333333333333</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>70.12222222222222</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>4.094444444444444</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>597.4166666666666</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>-0.36099999999999</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>982000445759335</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>26.65833333333333</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>25.425</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>43.33333333333334</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>4.333333333333333</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>113.2111111111111</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>17.75555555555556</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>535.9583333333334</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>3.458333333333333</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>982000445759336</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>22.63333333333334</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>23.21666666666667</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>33</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>2.333333333333333</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>73.37777777777778</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>12.18888888888889</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>581.3333333333334</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>-0.4166666666666667</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>982000445759337</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>26.00833333333334</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>20.28333333333333</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>34.33333333333334</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>2.333333333333333</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>104.4333333333333</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>4.688888888888889</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>446.5833333333333</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>-45.80566666666666</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>982000445759338</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>27.09166666666667</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>35.45833333333334</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>33.33333333333334</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>5</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>101.0555555555555</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>7.666666666666667</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>695.1276666666666</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>-1.400000000000015</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>982000445759339</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>31.30833333333333</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>22.83333333333333</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>35.33333333333334</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>2.666666666666667</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>139.55</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>11.58333333333333</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>704.5833333333334</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>-2.583333333333333</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>982000445759340</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>28.175</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>26.775</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>84.33333333333333</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>3</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>93.62777777777778</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>4.588888888888889</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>410.3886666666667</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>-3.722333333333324</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>982000445759341</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>20.28333333333333</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>24.4</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>35.66666666666666</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>3.333333333333333</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>83.57777777777777</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>17.95</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>467.2916666666667</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>4.291666666666667</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>982000445759343</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>27.225</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>36.23333333333333</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>36.33333333333334</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>5</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>76.96666666666667</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>5.972222222222221</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>599.2666666666667</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>-1.733333333333348</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>982000445759344</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>28.675</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>41.13333333333333</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>22.66666666666667</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>3.333333333333333</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>79.85555555555555</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>9.799999999999999</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>762.2776666666667</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>0.61099999999999</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>982000445759345</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>23.475</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>17.85</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>39.33333333333334</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>2.666666666666667</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>88.68333333333334</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>6.544444444444444</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>561.1750000000001</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>7.125</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>982000445759346</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>25.20833333333333</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>25.95</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>39.66666666666666</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>5</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>99.45</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>16.84444444444444</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>508.2666666666667</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>5.433333333333356</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>982000445759347</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>32.24166666666667</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>30.125</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>35</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>3</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>89.60000000000001</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>9.416666666666666</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>721.3333333333334</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>0.6666666666666666</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>982000445759348</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>28.175</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>29.26666666666667</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>49.33333333333334</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>4</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>97.76666666666667</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>11.69444444444444</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>670.25</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>0.375</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>982000445759349</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>23.59166666666667</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>17.75833333333333</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>29</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>2.333333333333333</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>60.58888888888888</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>3.166666666666667</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>467.8056666666666</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>3.416666666666667</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>982000445759352</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>26.79166666666667</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>24.93333333333333</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>24.33333333333333</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>2.333333333333333</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>122.5777777777778</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>12.22777777777778</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>631.361</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>-1.25</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>982000445759355</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>28.11666666666667</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>39.01666666666667</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>32.66666666666666</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>5</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>82.17222222222222</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>10.52777777777778</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>611.2109999999999</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>0.4443333333333233</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>982000445759356</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>29.08333333333333</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>26.85</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>35.66666666666666</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>3</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>98.37222222222222</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>7.655555555555556</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>600.2776666666667</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>-0.3886666666666467</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>982000445759357</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>27.475</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>21.975</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>28.33333333333333</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>3.666666666666667</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>111.65</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>10.06111111111111</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>587.5973333333333</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>3.375</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>982000445759358</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>29.3</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>34.10833333333333</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>34</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>3.333333333333333</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>79.95555555555556</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>11.86666666666667</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>731.1946666666666</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>0.36099999999999</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>982000445759359</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>31.34166666666667</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>26.075</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>40</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>2.666666666666667</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>141.5388888888889</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>8.094444444444443</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>588</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>2.916666666666667</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>982000445759360</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>25.06666666666667</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>22.375</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>28</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>129.5944444444444</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>14.32222222222222</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>596.264</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>7.875</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>982000445759362</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>11.59166666666667</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>15.56666666666667</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>9</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>2.666666666666667</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>64.03888888888889</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>15.85555555555556</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>656.6113333333334</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>-2.722333333333343</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>982000445759363</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>25.41666666666667</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>30.85833333333333</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>27.33333333333333</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>4</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>163.9944444444444</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>23.29444444444445</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>608.0973333333333</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>-1.01400000000001</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>982000445759365</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>28.175</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>27.775</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>31.33333333333333</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>3.666666666666667</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>86.06111111111112</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>8.505555555555555</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>717.6526666666667</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>-2.291666666666667</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>982000445759366</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>25.70833333333333</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>21.89166666666667</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>36.66666666666666</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>5.666666666666667</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>108.5333333333333</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>14.60555555555556</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>528.5219999999999</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>9.977666666666664</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>982000445759367</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>29.56666666666667</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>33.25</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>36.33333333333334</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>3.333333333333333</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>97.50555555555555</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>4.683333333333333</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>690.7083333333334</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>1.26400000000001</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>982000445759370</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>25.91666666666667</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>28.4</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>50</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>3.666666666666667</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>100.3722222222222</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>3.7</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>609.125</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>0.2916666666666667</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>982000445759372</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>22.75833333333334</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>22.56666666666667</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>25.66666666666667</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>4.666666666666667</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>98.47222222222221</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>27.67777777777778</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>504.5</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>5</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>982000445759373</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>22.56666666666667</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>18.79166666666667</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>57.66666666666666</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>4</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>76.43333333333334</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>13.03888888888889</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>477</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>3.958333333333333</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>982000445759374</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>25.84166666666667</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>24.46666666666667</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>36</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>3.666666666666667</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>101.75</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>14.08333333333333</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>505.0693333333334</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>6.694333333333323</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>982000445759375</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>22.45</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>21.81666666666667</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>47.66666666666666</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>3</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>124.4777777777778</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>13.24444444444445</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>435.6666666666667</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>7.166666666666667</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>982000445759376</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>30.96666666666667</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>25.74166666666666</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>55.33333333333334</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>2.333333333333333</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>125.55</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>8.683333333333332</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>640.9166666666666</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>0.9166666666666666</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>982000445759377</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>21.74166666666666</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>16.24166666666667</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>35.66666666666666</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>2.666666666666667</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>81.81111111111112</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>12.71111111111111</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>408.222</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>6.166666666666667</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>982000445759378</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>23.06666666666666</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>24.34166666666667</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>33.66666666666666</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>4</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>98.15555555555557</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>8.805555555555555</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>478.6776666666667</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>14.07766666666667</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>982000445759379</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>21.7</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>34.59166666666667</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>30.33333333333333</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>4.666666666666667</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>80.59444444444445</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>16.38333333333334</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>587</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>3.5</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>982000445759380</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>24.48333333333333</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>22.80833333333333</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>22.33333333333333</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>3</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>88.78333333333335</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>11.68333333333333</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>548.3056666666666</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>-30.27766666666668</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>982000445759382</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>20.725</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>19.88333333333333</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>42.66666666666666</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>3</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>113.6055555555556</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>3.411111111111111</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>470.6666666666667</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>-38.61100000000001</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>982000445759383</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>25.71666666666667</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>24.11666666666666</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>28.66666666666667</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>2.666666666666667</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>56.47777777777778</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>4.072222222222222</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>644</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>1.388666666666647</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>982000445759384</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>21.11666666666667</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>32.03333333333333</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>25.33333333333333</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>2.333333333333333</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>86.3611111111111</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>5.938888888888889</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>718.9166666666666</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>-1.083333333333333</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>982000445759386</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>28.46666666666667</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>35.725</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>55</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>5</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>97.89444444444445</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>14.08888888888889</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>659</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>-1.966666666666659</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>982000445759387</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>29.13333333333334</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>27.8</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>48</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>6</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>95.14444444444445</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>21.47777777777778</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>598.5459999999999</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>-1.776333333333317</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>982000445759388</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>20.08333333333333</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>17.125</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>28.66666666666667</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>2</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>71.04444444444444</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>3.994444444444445</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>530.611</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>2.444333333333323</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>982000445759389</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>23.475</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>18.08333333333333</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>54.66666666666666</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>3.333333333333333</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>118.4777777777778</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>8.527777777777779</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>549.111</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>3.777666666666657</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>982000445759391</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>27.99166666666666</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>25.51666666666667</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>33.66666666666666</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>4.333333333333333</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>118.2666666666667</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>9.78888888888889</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>584.5333333333333</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49">
         <v>2.616666666666674</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:9">
+      <c r="A50">
         <v>982000445759392</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>30.7</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>22.51666666666667</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>39.33333333333334</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>3.333333333333333</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>125.1222222222222</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>20.54444444444444</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>546.3053333333334</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>5.972333333333343</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:9">
+      <c r="A51">
         <v>982000445759393</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>25.61666666666666</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>18.75833333333334</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>25.66666666666667</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>2.666666666666667</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>89.81111111111112</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>17.62777777777778</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>516.75</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51">
         <v>5.305666666666677</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:9">
+      <c r="A52">
         <v>982000445759396</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>29.94166666666667</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>23.03333333333333</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>60.66666666666666</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>3.333333333333333</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>77.57222222222222</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>8</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>547.8056666666666</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>8.916666666666666</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:9">
+      <c r="A53">
         <v>982000445759399</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>17.74166666666667</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>18.975</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>22.33333333333333</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>2.333333333333333</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>63.2</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>4.016666666666667</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>683.6943333333334</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53">
         <v>-0.13900000000001</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:9">
+      <c r="A54">
         <v>982000445759400</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>23.4</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>14.275</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>23.33333333333333</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>3</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>98.95555555555556</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>63.33333333333334</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>595.0556666666666</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54">
         <v>6</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:9">
+      <c r="A55">
         <v>982000445759401</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>25.94166666666667</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>28.66666666666667</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>51</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>4</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>102.0222222222222</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>8.022222222222222</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>523.2723333333333</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55">
         <v>12.161</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:9">
+      <c r="A56">
         <v>982000445759402</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>25.225</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>34.68333333333333</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>29</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>4</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>88.22777777777777</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>8.677777777777777</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>575.7973333333333</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56">
         <v>3.174999999999992</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:9">
+      <c r="A57">
         <v>982000445759404</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>21.81666666666666</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>51.6</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>34.66666666666666</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>6.333333333333333</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>103.35</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>6.211111111111111</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>688.6693333333333</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57">
         <v>-3.729000000000004</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:9">
+      <c r="A58">
         <v>982000445759405</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>25.63333333333334</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>19.86666666666667</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>44.33333333333334</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>4</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>155.5222222222222</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>10.78333333333333</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>531.35</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58">
         <v>5.75</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:9">
+      <c r="A59">
         <v>982000445759407</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>23.55</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>29.175</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>31.33333333333333</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>5.666666666666667</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>64.23888888888889</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>14.01111111111111</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>665.0286666666666</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I59">
         <v>-1.733333333333348</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:9">
+      <c r="A60">
         <v>982000445759409</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>28.18333333333333</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>32.50833333333333</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>37</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>3.333333333333333</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>105.7777777777778</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>13.78333333333333</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>641.6666666666666</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60">
         <v>58.66666666666666</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:9">
+      <c r="A61">
         <v>982000445759411</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>19.825</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>21.71666666666667</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>27.66666666666667</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>3.666666666666667</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>75.8611111111111</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>4.861111111111112</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>494.111</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I61">
         <v>4.347333333333324</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:9">
+      <c r="A62">
         <v>982000445759412</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>21.85</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>24.13333333333334</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>64.66666666666667</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>5</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>84.40555555555555</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>18.36111111111111</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>618.0223333333333</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62">
         <v>-2.589000000000018</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:9">
+      <c r="A63">
         <v>982000445759413</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>28.2</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>22.95833333333333</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>47.66666666666666</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>3.666666666666667</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>122.1388888888889</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>7.294444444444444</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>606.875</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63">
         <v>0.2083333333333333</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:9">
+      <c r="A64">
         <v>982000445759414</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>22.45833333333333</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>17.625</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>28</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>3</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>81.09444444444445</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>5.316666666666666</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>537.5</v>
       </c>
-      <c r="I64" t="n">
+      <c r="I64">
         <v>1.666666666666667</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:9">
+      <c r="A65">
         <v>982000445759418</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>18.35833333333333</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>20.01666666666667</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>27.33333333333333</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>3</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>89.83333333333333</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>20.18333333333333</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>614.278</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I65">
         <v>-5.555666666666677</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:9">
+      <c r="A66">
         <v>982000445759420</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>26.65</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>24.11666666666666</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>39.33333333333334</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>4</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>112</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>17.08333333333333</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66">
         <v>484.0723333333333</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I66">
         <v>-31.62233333333332</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:9">
+      <c r="A67">
         <v>982000445759422</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>14.33333333333333</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>19.35</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>20.66666666666667</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>4</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>57.76111111111111</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>6.911111111111111</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67">
         <v>644.9443333333334</v>
       </c>
-      <c r="I67" t="n">
+      <c r="I67">
         <v>1.777666666666657</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:9">
+      <c r="A68">
         <v>982000445759424</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>18.825</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>17.14166666666667</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>16.33333333333333</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>3</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>54.93333333333334</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>11.38888888888889</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68">
         <v>445.111</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I68">
         <v>101</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:9">
+      <c r="A69">
         <v>982000445759426</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>23.96666666666667</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>27.18333333333333</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>42.66666666666666</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>3.666666666666667</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>56.38333333333333</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>12.85</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69">
         <v>517.5</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I69">
         <v>22.91666666666667</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:9">
+      <c r="A70">
         <v>982000445759428</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>22.375</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>21.01666666666667</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>20.33333333333333</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>2</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>65.81111111111112</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>4.416666666666667</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70">
         <v>661</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I70">
         <v>0</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:9">
+      <c r="A71">
         <v>982000445759430</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>19.54166666666667</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>25.30833333333333</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>23.66666666666667</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>3.333333333333333</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>73.39999999999999</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>11.87777777777778</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71">
         <v>484.4443333333334</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I71">
         <v>1.833333333333333</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:9">
+      <c r="A72">
         <v>982000445759431</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>29.15833333333333</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>21.41666666666667</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>41.66666666666666</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>3.666666666666667</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>120.6944444444444</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>14.01666666666667</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72">
         <v>612.3473333333333</v>
       </c>
-      <c r="I72" t="n">
+      <c r="I72">
         <v>-0.4723333333333433</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="73" spans="1:9">
+      <c r="A73">
         <v>982000445759432</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>27.075</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>29.525</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>32.66666666666666</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>2.333333333333333</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>81.77222222222223</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>11.27222222222222</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73">
         <v>705.25</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I73">
         <v>-0.3333333333333333</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="74" spans="1:9">
+      <c r="A74">
         <v>982000445759433</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>28.1</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>23.225</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>63</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>3</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>98.17777777777779</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>9.983333333333334</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H74">
         <v>521.125</v>
       </c>
-      <c r="I74" t="n">
+      <c r="I74">
         <v>4.541666666666667</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="75" spans="1:9">
+      <c r="A75">
         <v>982000445759434</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>29.63333333333334</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>30.1</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>69.66666666666667</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>4</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>111.6777777777778</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>21.38888888888889</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75">
         <v>568.0333333333333</v>
       </c>
-      <c r="I75" t="n">
+      <c r="I75">
         <v>-29.90000000000002</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="76" spans="1:9">
+      <c r="A76">
         <v>982000445759441</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>29.4</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>23.3</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>57.33333333333334</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>5</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>116.3055555555555</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>7.75</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76">
         <v>609.8403333333333</v>
       </c>
-      <c r="I76" t="n">
+      <c r="I76">
         <v>0.06266666666666272</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="77" spans="1:9">
+      <c r="A77">
         <v>982000445759444</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>28.225</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>31.80833333333333</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>42.33333333333334</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>3</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>93.35555555555555</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>5.488888888888888</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H77">
         <v>590.5556666666666</v>
       </c>
-      <c r="I77" t="n">
+      <c r="I77">
         <v>0.5553333333333134</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="78" spans="1:9">
+      <c r="A78">
         <v>982000445759445</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>20.025</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>18.01666666666667</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>26</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>3.333333333333333</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>83.05555555555556</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>7.48888888888889</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H78">
         <v>469.9583333333333</v>
       </c>
-      <c r="I78" t="n">
+      <c r="I78">
         <v>-35.95833333333334</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="79" spans="1:9">
+      <c r="A79">
         <v>982000445759447</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>20.45833333333333</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>40.61666666666667</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>34.33333333333334</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>5</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>122.4222222222222</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>10.71111111111111</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H79">
         <v>602.5276666666667</v>
       </c>
-      <c r="I79" t="n">
+      <c r="I79">
         <v>-1.361333333333353</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="80" spans="1:9">
+      <c r="A80">
         <v>982000445759448</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>25.36666666666666</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>18.64166666666667</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>28</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>3.333333333333333</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>96.75555555555555</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>14.40555555555556</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H80">
         <v>600.3666666666667</v>
       </c>
-      <c r="I80" t="n">
+      <c r="I80">
         <v>-0.8333333333333334</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="81" spans="1:9">
+      <c r="A81">
         <v>982000445759450</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>25.73333333333333</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>18.64166666666667</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>70.66666666666667</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>3.333333333333333</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>131.3666666666667</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>23.68333333333333</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H81">
         <v>479.375</v>
       </c>
-      <c r="I81" t="n">
+      <c r="I81">
         <v>5.625</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="82" spans="1:9">
+      <c r="A82">
         <v>982000445759452</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>20.06666666666667</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>21.48333333333333</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>23.33333333333333</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>2</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>56.43888888888889</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>6.411111111111111</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H82">
         <v>626.889</v>
       </c>
-      <c r="I82" t="n">
+      <c r="I82">
         <v>0.05566666666667667</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="83" spans="1:9">
+      <c r="A83">
         <v>982000453618792</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>26.16666666666667</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>26.625</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>24.33333333333333</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>3.666666666666667</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>90.17222222222222</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>8.783333333333333</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83">
         <v>481.8056666666666</v>
       </c>
-      <c r="I83" t="n">
+      <c r="I83">
         <v>6.472333333333324</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="84" spans="1:9">
+      <c r="A84">
         <v>982000453618793</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>20.73333333333333</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>19.75</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>18</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>4.333333333333333</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>77.17777777777779</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>15.83333333333333</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H84">
         <v>580.3333333333334</v>
       </c>
-      <c r="I84" t="n">
+      <c r="I84">
         <v>-2.208333333333333</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="85" spans="1:9">
+      <c r="A85">
         <v>982000453618794</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>26.46666666666667</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>15.86666666666667</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>72.66666666666667</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>3</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>115.8111111111111</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>4.672222222222222</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H85">
         <v>494.9443333333334</v>
       </c>
-      <c r="I85" t="n">
+      <c r="I85">
         <v>4.805666666666657</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="86" spans="1:9">
+      <c r="A86">
         <v>982000453618795</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>27.025</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>24.525</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>43.33333333333334</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>4.333333333333333</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>88.73333333333333</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>8.511111111111111</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H86">
         <v>573.0583333333333</v>
       </c>
-      <c r="I86" t="n">
+      <c r="I86">
         <v>3.433333333333318</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="87" spans="1:9">
+      <c r="A87">
         <v>982000453618796</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>29.35833333333333</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>29.94166666666667</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>36.33333333333334</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>3.333333333333333</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>103.4555555555556</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>11.86111111111111</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H87">
         <v>520.7776666666667</v>
       </c>
-      <c r="I87" t="n">
+      <c r="I87">
         <v>7.388999999999991</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="88" spans="1:9">
+      <c r="A88">
         <v>982000453618797</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>30.975</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>25.75</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>38.33333333333334</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>3.666666666666667</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>136.8055555555556</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>8.272222222222222</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H88">
         <v>572.3473333333333</v>
       </c>
-      <c r="I88" t="n">
+      <c r="I88">
         <v>5.444333333333323</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="89" spans="1:9">
+      <c r="A89">
         <v>982000453618798</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>25.66666666666667</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>20.73333333333333</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>38</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>4</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>79.44444444444444</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>16.18888888888889</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H89">
         <v>532.1193333333333</v>
       </c>
-      <c r="I89" t="n">
+      <c r="I89">
         <v>4.408333333333341</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="90" spans="1:9">
+      <c r="A90">
         <v>982000453618799</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>24.55833333333333</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>20.775</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>28.33333333333333</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>3.333333333333333</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>92.50555555555555</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>10.66666666666667</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H90">
         <v>418.278</v>
       </c>
-      <c r="I90" t="n">
+      <c r="I90">
         <v>7.555666666666657</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="91" spans="1:9">
+      <c r="A91">
         <v>982000453618800</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>26.01666666666667</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>16.10833333333333</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>39.66666666666666</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>1.666666666666667</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>77.57777777777778</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>8.477777777777778</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H91">
         <v>546.1666666666666</v>
       </c>
-      <c r="I91" t="n">
+      <c r="I91">
         <v>5.75</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
+    <row r="92" spans="1:9">
+      <c r="A92">
         <v>982000453618801</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>27.275</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>20.975</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>63</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>4.333333333333333</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>151.4</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>14.82777777777778</v>
       </c>
-      <c r="H92" t="n">
+      <c r="H92">
         <v>510.5166666666667</v>
       </c>
-      <c r="I92" t="n">
+      <c r="I92">
         <v>-5.01666666666667</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:9">
+      <c r="A93">
         <v>982000453618802</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>27.08333333333333</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>32.70833333333334</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>31.33333333333333</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>2.666666666666667</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>85.22222222222221</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>8.111111111111111</v>
       </c>
-      <c r="H93" t="n">
+      <c r="H93">
         <v>514.5</v>
       </c>
-      <c r="I93" t="n">
+      <c r="I93">
         <v>0.27800000000002</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="94" spans="1:9">
+      <c r="A94">
         <v>982000453618803</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>24.825</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>21.95833333333333</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>57.33333333333334</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>3.333333333333333</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>112.15</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>7.027777777777779</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H94">
         <v>484.9333333333333</v>
       </c>
-      <c r="I94" t="n">
+      <c r="I94">
         <v>-26.65</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
+    <row r="95" spans="1:9">
+      <c r="A95">
         <v>982000453618804</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>25.61666666666666</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>24.21666666666667</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>24.33333333333333</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>3.333333333333333</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>101.3777777777778</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>7.166666666666667</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H95">
         <v>555.1113333333334</v>
       </c>
-      <c r="I95" t="n">
+      <c r="I95">
         <v>5.777666666666657</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
+    <row r="96" spans="1:9">
+      <c r="A96">
         <v>982000453618805</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>23.68333333333333</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>26.50833333333334</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>46</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>3.333333333333333</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>87.10000000000001</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>8.833333333333334</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H96">
         <v>524.3333333333334</v>
       </c>
-      <c r="I96" t="n">
+      <c r="I96">
         <v>0.9166666666666666</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="97" spans="1:9">
+      <c r="A97">
         <v>982000453618806</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>24.4</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>29.95</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>48</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>4.333333333333333</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>119.4944444444445</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>12.05555555555556</v>
       </c>
-      <c r="H97" t="n">
+      <c r="H97">
         <v>670.5</v>
       </c>
-      <c r="I97" t="n">
+      <c r="I97">
         <v>1</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
+    <row r="98" spans="1:9">
+      <c r="A98">
         <v>982000453618807</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>22.83333333333333</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>31.51666666666667</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>49</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>4.666666666666667</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>68.77222222222223</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>9.011111111111111</v>
       </c>
-      <c r="H98" t="n">
+      <c r="H98">
         <v>444.6806666666666</v>
       </c>
-      <c r="I98" t="n">
+      <c r="I98">
         <v>2.986000000000009</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
+    <row r="99" spans="1:9">
+      <c r="A99">
         <v>982000453618808</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>31.66666666666667</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>33.53333333333333</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>31.33333333333333</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>5</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>145.1722222222222</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>30.21666666666667</v>
       </c>
-      <c r="H99" t="n">
+      <c r="H99">
         <v>594.6</v>
       </c>
-      <c r="I99" t="n">
+      <c r="I99">
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
+    <row r="100" spans="1:9">
+      <c r="A100">
         <v>982000453618809</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>23.8</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>32.71666666666667</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>39.33333333333334</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>3.666666666666667</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>66.41111111111111</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>5.350000000000001</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H100">
         <v>596.0693333333334</v>
       </c>
-      <c r="I100" t="n">
+      <c r="I100">
         <v>0.06933333333332332</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
+    <row r="101" spans="1:9">
+      <c r="A101">
         <v>982000453618810</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>21.21666666666667</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>22.96666666666667</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>26.33333333333333</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>2</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>86.62222222222222</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>5.838888888888889</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H101">
         <v>624.25</v>
       </c>
-      <c r="I101" t="n">
+      <c r="I101">
         <v>-0.1666666666666667</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="n">
+    <row r="102" spans="1:9">
+      <c r="A102">
         <v>982000453618811</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>29.125</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>25.44166666666666</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>47.33333333333334</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>6.333333333333333</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>133.2833333333333</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>30.3</v>
       </c>
-      <c r="H102" t="n">
+      <c r="H102">
         <v>602.4166666666666</v>
       </c>
-      <c r="I102" t="n">
+      <c r="I102">
         <v>0.52800000000002</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="n">
+    <row r="103" spans="1:9">
+      <c r="A103">
         <v>982000453618812</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>24.8</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>20.15</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>48.66666666666666</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>2.666666666666667</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103">
         <v>71.78333333333335</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G103">
         <v>15.97222222222222</v>
       </c>
-      <c r="H103" t="n">
+      <c r="H103">
         <v>505.3333333333333</v>
       </c>
-      <c r="I103" t="n">
+      <c r="I103">
         <v>0.9166666666666666</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="n">
+    <row r="104" spans="1:9">
+      <c r="A104">
         <v>982000453618813</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>27.65833333333333</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>21.16666666666667</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>51.33333333333334</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>3.666666666666667</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F104">
         <v>152.5944444444444</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G104">
         <v>7.01111111111111</v>
       </c>
-      <c r="H104" t="n">
+      <c r="H104">
         <v>527.5</v>
       </c>
-      <c r="I104" t="n">
+      <c r="I104">
         <v>4.791666666666667</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="n">
+    <row r="105" spans="1:9">
+      <c r="A105">
         <v>982000453618814</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>19.90833333333333</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>20.35</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>34</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105">
         <v>3.666666666666667</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105">
         <v>64.66666666666667</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G105">
         <v>10.50555555555555</v>
       </c>
-      <c r="H105" t="n">
+      <c r="H105">
         <v>479.9443333333334</v>
       </c>
-      <c r="I105" t="n">
+      <c r="I105">
         <v>-0.2776666666666756</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="n">
+    <row r="106" spans="1:9">
+      <c r="A106">
         <v>982000453618815</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>21.19166666666667</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>12.96666666666667</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>40.33333333333334</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>3</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F106">
         <v>107.6444444444444</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G106">
         <v>9.299999999999999</v>
       </c>
-      <c r="H106" t="n">
+      <c r="H106">
         <v>452.3613333333333</v>
       </c>
-      <c r="I106" t="n">
+      <c r="I106">
         <v>2.805666666666658</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="n">
+    <row r="107" spans="1:9">
+      <c r="A107">
         <v>982000453618816</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>23.35833333333333</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>18.80833333333333</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>37.66666666666666</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107">
         <v>2.666666666666667</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F107">
         <v>73.34444444444443</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G107">
         <v>5.233333333333333</v>
       </c>
-      <c r="H107" t="n">
+      <c r="H107">
         <v>551.3333333333334</v>
       </c>
-      <c r="I107" t="n">
+      <c r="I107">
         <v>3.11099999999999</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="n">
+    <row r="108" spans="1:9">
+      <c r="A108">
         <v>982000453618817</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>28.31666666666667</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>32.45</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>39</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>4.333333333333333</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108">
         <v>112.4055555555556</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G108">
         <v>9.972222222222221</v>
       </c>
-      <c r="H108" t="n">
+      <c r="H108">
         <v>558.857</v>
       </c>
-      <c r="I108" t="n">
+      <c r="I108">
         <v>3.809666666666658</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="n">
+    <row r="109" spans="1:9">
+      <c r="A109">
         <v>982000453618818</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>20.85</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>16.225</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>44.66666666666666</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109">
         <v>2.666666666666667</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F109">
         <v>88.73888888888889</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G109">
         <v>4.822222222222222</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H109">
         <v>494.9166666666667</v>
       </c>
-      <c r="I109" t="n">
+      <c r="I109">
         <v>5.972333333333324</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="n">
+    <row r="110" spans="1:9">
+      <c r="A110">
         <v>982000453618819</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>26.35</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>30.10833333333333</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>73.33333333333333</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110">
         <v>2.333333333333333</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F110">
         <v>84.12222222222222</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G110">
         <v>5.394444444444445</v>
       </c>
-      <c r="H110" t="n">
+      <c r="H110">
         <v>599.1666666666666</v>
       </c>
-      <c r="I110" t="n">
+      <c r="I110">
         <v>-75.75</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="n">
+    <row r="111" spans="1:9">
+      <c r="A111">
         <v>982000453618820</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>18.51666666666667</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>26.81666666666667</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>32.66666666666666</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111">
         <v>4</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F111">
         <v>95.30555555555554</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G111">
         <v>22.75555555555556</v>
       </c>
-      <c r="H111" t="n">
+      <c r="H111">
         <v>499.9276666666667</v>
       </c>
-      <c r="I111" t="n">
+      <c r="I111">
         <v>2.694333333333342</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="n">
+    <row r="112" spans="1:9">
+      <c r="A112">
         <v>982000453618821</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>23.21666666666667</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>27.65833333333333</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>34</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112">
         <v>3.333333333333333</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F112">
         <v>76.61666666666666</v>
       </c>
-      <c r="G112" t="n">
+      <c r="G112">
         <v>12.7</v>
       </c>
-      <c r="H112" t="n">
+      <c r="H112">
         <v>673.4026666666667</v>
       </c>
-      <c r="I112" t="n">
+      <c r="I112">
         <v>0.88900000000001</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="n">
+    <row r="113" spans="1:9">
+      <c r="A113">
         <v>982000453618822</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>25.475</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>27.725</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>23.66666666666667</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113">
         <v>3.666666666666667</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F113">
         <v>60.55</v>
       </c>
-      <c r="G113" t="n">
+      <c r="G113">
         <v>9.883333333333333</v>
       </c>
-      <c r="H113" t="n">
+      <c r="H113">
         <v>548.725</v>
       </c>
-      <c r="I113" t="n">
+      <c r="I113">
         <v>4.849999999999985</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="n">
+    <row r="114" spans="1:9">
+      <c r="A114">
         <v>982000453618823</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>17.99166666666667</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>14.025</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>27</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114">
         <v>1.333333333333333</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F114">
         <v>57.97777777777778</v>
       </c>
-      <c r="G114" t="n">
+      <c r="G114">
         <v>2.672222222222222</v>
       </c>
-      <c r="H114" t="n">
+      <c r="H114">
         <v>525</v>
       </c>
-      <c r="I114" t="n">
+      <c r="I114">
         <v>3.5</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="n">
+    <row r="115" spans="1:9">
+      <c r="A115">
         <v>982000453618824</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>25.11666666666666</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>18.5</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>32.66666666666666</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115">
         <v>1.666666666666667</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F115">
         <v>98.85000000000001</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G115">
         <v>9.155555555555557</v>
       </c>
-      <c r="H115" t="n">
+      <c r="H115">
         <v>568.1666666666666</v>
       </c>
-      <c r="I115" t="n">
+      <c r="I115">
         <v>2.75</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="n">
+    <row r="116" spans="1:9">
+      <c r="A116">
         <v>982000453618825</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>24.025</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>46.99166666666667</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>18</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116">
         <v>3.666666666666667</v>
       </c>
-      <c r="F116" t="n">
+      <c r="F116">
         <v>92.97222222222221</v>
       </c>
-      <c r="G116" t="n">
+      <c r="G116">
         <v>16.56111111111111</v>
       </c>
-      <c r="H116" t="n">
+      <c r="H116">
         <v>663.736</v>
       </c>
-      <c r="I116" t="n">
+      <c r="I116">
         <v>20.19433333333332</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="n">
+    <row r="117" spans="1:9">
+      <c r="A117">
         <v>982000453618826</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>29.8</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>23.91666666666667</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>45</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117">
         <v>3</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F117">
         <v>105.55</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G117">
         <v>10.18888888888889</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H117">
         <v>546.9166666666666</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I117">
         <v>0.08333333333333333</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="n">
+    <row r="118" spans="1:9">
+      <c r="A118">
         <v>982000453618827</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>25.875</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>21.61666666666666</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>36</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118">
         <v>5</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F118">
         <v>99.18888888888888</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G118">
         <v>14.18333333333333</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H118">
         <v>418.736</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I118">
         <v>5.527666666666676</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="n">
+    <row r="119" spans="1:9">
+      <c r="A119">
         <v>982000453618828</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>25.20833333333333</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>25.25</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>42.33333333333334</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119">
         <v>3</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F119">
         <v>116.1111111111111</v>
       </c>
-      <c r="G119" t="n">
+      <c r="G119">
         <v>12.65555555555556</v>
       </c>
-      <c r="H119" t="n">
+      <c r="H119">
         <v>527.389</v>
       </c>
-      <c r="I119" t="n">
+      <c r="I119">
         <v>-1.38900000000001</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="n">
+    <row r="120" spans="1:9">
+      <c r="A120">
         <v>982000453618829</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>20.6</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>22.25833333333334</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>31.33333333333333</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120">
         <v>3.666666666666667</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F120">
         <v>86.03333333333335</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G120">
         <v>3.461111111111111</v>
       </c>
-      <c r="H120" t="n">
+      <c r="H120">
         <v>705.2916666666666</v>
       </c>
-      <c r="I120" t="n">
+      <c r="I120">
         <v>-0.7916666666666666</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="n">
+    <row r="121" spans="1:9">
+      <c r="A121">
         <v>982000453618830</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>30.75833333333334</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>24.56666666666667</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>43.33333333333334</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121">
         <v>3.666666666666667</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F121">
         <v>141.9222222222222</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G121">
         <v>19.49444444444444</v>
       </c>
-      <c r="H121" t="n">
+      <c r="H121">
         <v>585.4166666666666</v>
       </c>
-      <c r="I121" t="n">
+      <c r="I121">
         <v>4.375</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="n">
+    <row r="122" spans="1:9">
+      <c r="A122">
         <v>982000453618831</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>25.325</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>30.38333333333334</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>54</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122">
         <v>5.333333333333333</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F122">
         <v>76.90555555555555</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G122">
         <v>18.96111111111111</v>
       </c>
-      <c r="H122" t="n">
+      <c r="H122">
         <v>463.9856666666667</v>
       </c>
-      <c r="I122" t="n">
+      <c r="I122">
         <v>6.633333333333326</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="n">
+    <row r="123" spans="1:9">
+      <c r="A123">
         <v>982000453618832</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>31.44166666666666</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>30.91666666666667</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>55</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E123">
         <v>5.333333333333333</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F123">
         <v>45.57222222222222</v>
       </c>
-      <c r="G123" t="n">
+      <c r="G123">
         <v>15.25</v>
       </c>
-      <c r="H123" t="n">
+      <c r="H123">
         <v>617.3513333333334</v>
       </c>
-      <c r="I123" t="n">
+      <c r="I123">
         <v>1.267999999999991</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="n">
+    <row r="124" spans="1:9">
+      <c r="A124">
         <v>982000453618833</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>23.25833333333334</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>22.61666666666666</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>41.66666666666666</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124">
         <v>4</v>
       </c>
-      <c r="F124" t="n">
+      <c r="F124">
         <v>73.98333333333333</v>
       </c>
-      <c r="G124" t="n">
+      <c r="G124">
         <v>10.34444444444444</v>
       </c>
-      <c r="H124" t="n">
+      <c r="H124">
         <v>518.014</v>
       </c>
-      <c r="I124" t="n">
+      <c r="I124">
         <v>10.625</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="n">
+    <row r="125" spans="1:9">
+      <c r="A125">
         <v>982000453618834</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>29.16666666666667</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>26.55833333333333</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>30</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E125">
         <v>3.666666666666667</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F125">
         <v>124.5944444444444</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G125">
         <v>11.73888888888889</v>
       </c>
-      <c r="H125" t="n">
+      <c r="H125">
         <v>630.889</v>
       </c>
-      <c r="I125" t="n">
+      <c r="I125">
         <v>7</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="n">
+    <row r="126" spans="1:9">
+      <c r="A126">
         <v>982000453618835</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>26.23333333333333</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>20.00833333333333</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>42</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E126">
         <v>3.333333333333333</v>
       </c>
-      <c r="F126" t="n">
+      <c r="F126">
         <v>113.4388888888889</v>
       </c>
-      <c r="G126" t="n">
+      <c r="G126">
         <v>5.55</v>
       </c>
-      <c r="H126" t="n">
+      <c r="H126">
         <v>628.0556666666666</v>
       </c>
-      <c r="I126" t="n">
+      <c r="I126">
         <v>-0.26400000000001</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="n">
+    <row r="127" spans="1:9">
+      <c r="A127">
         <v>982000453618836</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>25.64166666666667</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>17.71666666666667</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>69</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E127">
         <v>4</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F127">
         <v>133.2444444444444</v>
       </c>
-      <c r="G127" t="n">
+      <c r="G127">
         <v>15.11111111111111</v>
       </c>
-      <c r="H127" t="n">
+      <c r="H127">
         <v>422.8416666666667</v>
       </c>
-      <c r="I127" t="n">
+      <c r="I127">
         <v>4.208333333333333</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="n">
+    <row r="128" spans="1:9">
+      <c r="A128">
         <v>982000453618837</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>27.54166666666667</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>22.825</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>15</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E128">
         <v>4.333333333333333</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F128">
         <v>101.3944444444444</v>
       </c>
-      <c r="G128" t="n">
+      <c r="G128">
         <v>18.32222222222222</v>
       </c>
-      <c r="H128" t="n">
+      <c r="H128">
         <v>604.225</v>
       </c>
-      <c r="I128" t="n">
+      <c r="I128">
         <v>-0.7083333333333334</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="n">
+    <row r="129" spans="1:9">
+      <c r="A129">
         <v>982000453618838</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>14.44166666666667</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>18.06666666666667</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>15</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E129">
         <v>2.666666666666667</v>
       </c>
-      <c r="F129" t="n">
+      <c r="F129">
         <v>41.15</v>
       </c>
-      <c r="G129" t="n">
+      <c r="G129">
         <v>4.583333333333333</v>
       </c>
-      <c r="H129" t="n">
+      <c r="H129">
         <v>687.7223333333333</v>
       </c>
-      <c r="I129" t="n">
+      <c r="I129">
         <v>-0.2776666666666567</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="n">
+    <row r="130" spans="1:9">
+      <c r="A130">
         <v>982000453618839</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>27.2</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>21.33333333333333</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>34.33333333333334</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E130">
         <v>4</v>
       </c>
-      <c r="F130" t="n">
+      <c r="F130">
         <v>101.7444444444445</v>
       </c>
-      <c r="G130" t="n">
+      <c r="G130">
         <v>16.92222222222222</v>
       </c>
-      <c r="H130" t="n">
+      <c r="H130">
         <v>553.0916666666667</v>
       </c>
-      <c r="I130" t="n">
+      <c r="I130">
         <v>2.799999999999992</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="n">
+    <row r="131" spans="1:9">
+      <c r="A131">
         <v>982000453618840</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>21.5</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>22.95833333333333</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>19.33333333333333</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E131">
         <v>3.333333333333333</v>
       </c>
-      <c r="F131" t="n">
+      <c r="F131">
         <v>180.2</v>
       </c>
-      <c r="G131" t="n">
+      <c r="G131">
         <v>18.95</v>
       </c>
-      <c r="H131" t="n">
+      <c r="H131">
         <v>415.375</v>
       </c>
-      <c r="I131" t="n">
+      <c r="I131">
         <v>18.875</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="n">
+    <row r="132" spans="1:9">
+      <c r="A132">
         <v>982000453618841</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>21.71666666666667</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>19.41666666666667</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>61.66666666666666</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E132">
         <v>3.666666666666667</v>
       </c>
-      <c r="F132" t="n">
+      <c r="F132">
         <v>84.71666666666667</v>
       </c>
-      <c r="G132" t="n">
+      <c r="G132">
         <v>4.755555555555556</v>
       </c>
-      <c r="H132" t="n">
+      <c r="H132">
         <v>440.1803333333334</v>
       </c>
-      <c r="I132" t="n">
+      <c r="I132">
         <v>34.5</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="n">
+    <row r="133" spans="1:9">
+      <c r="A133">
         <v>982000453618842</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>18.675</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>13.175</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>28.66666666666667</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E133">
         <v>2.666666666666667</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F133">
         <v>45.88333333333333</v>
       </c>
-      <c r="G133" t="n">
+      <c r="G133">
         <v>6.738888888888888</v>
       </c>
-      <c r="H133" t="n">
+      <c r="H133">
         <v>574</v>
       </c>
-      <c r="I133" t="n">
+      <c r="I133">
         <v>5.38900000000001</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="n">
+    <row r="134" spans="1:9">
+      <c r="A134">
         <v>982000453618843</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>17.60833333333333</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>23.86666666666666</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>26.33333333333333</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E134">
         <v>2.666666666666667</v>
       </c>
-      <c r="F134" t="n">
+      <c r="F134">
         <v>62.32222222222223</v>
       </c>
-      <c r="G134" t="n">
+      <c r="G134">
         <v>16.15555555555556</v>
       </c>
-      <c r="H134" t="n">
+      <c r="H134">
         <v>519.1666666666666</v>
       </c>
-      <c r="I134" t="n">
+      <c r="I134">
         <v>9</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="n">
+    <row r="135" spans="1:9">
+      <c r="A135">
         <v>982000453618844</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>13.54166666666667</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>14.56666666666667</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>32.66666666666666</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E135">
         <v>3.666666666666667</v>
       </c>
-      <c r="F135" t="n">
+      <c r="F135">
         <v>53.95555555555556</v>
       </c>
-      <c r="G135" t="n">
+      <c r="G135">
         <v>8.866666666666665</v>
       </c>
-      <c r="H135" t="n">
+      <c r="H135">
         <v>328.6943333333334</v>
       </c>
-      <c r="I135" t="n">
+      <c r="I135">
         <v>2.472333333333324</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="n">
+    <row r="136" spans="1:9">
+      <c r="A136">
         <v>982000453618845</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>15.88333333333333</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>17.93333333333333</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>57</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E136">
         <v>2.666666666666667</v>
       </c>
-      <c r="F136" t="n">
+      <c r="F136">
         <v>42.46111111111111</v>
       </c>
-      <c r="G136" t="n">
+      <c r="G136">
         <v>7.95</v>
       </c>
-      <c r="H136" t="n">
+      <c r="H136">
         <v>394.4723333333333</v>
       </c>
-      <c r="I136" t="n">
+      <c r="I136">
         <v>4.861000000000009</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="n">
+    <row r="137" spans="1:9">
+      <c r="A137">
         <v>982000453618846</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>23.86666666666666</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>25.13333333333334</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>23</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E137">
         <v>2.666666666666667</v>
       </c>
-      <c r="F137" t="n">
+      <c r="F137">
         <v>129.8222222222222</v>
       </c>
-      <c r="G137" t="n">
+      <c r="G137">
         <v>12.08888888888889</v>
       </c>
-      <c r="H137" t="n">
+      <c r="H137">
         <v>595.6666666666666</v>
       </c>
-      <c r="I137" t="n">
+      <c r="I137">
         <v>51.16666666666666</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="n">
+    <row r="138" spans="1:9">
+      <c r="A138">
         <v>982000453618847</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>29.575</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>28.94166666666667</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>52</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E138">
         <v>4.333333333333333</v>
       </c>
-      <c r="F138" t="n">
+      <c r="F138">
         <v>93.19444444444444</v>
       </c>
-      <c r="G138" t="n">
+      <c r="G138">
         <v>18.83333333333333</v>
       </c>
-      <c r="H138" t="n">
+      <c r="H138">
         <v>478.65</v>
       </c>
-      <c r="I138" t="n">
+      <c r="I138">
         <v>10.15</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="n">
+    <row r="139" spans="1:9">
+      <c r="A139">
         <v>982000453618848</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>25.425</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>24.06666666666667</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>34</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E139">
         <v>4</v>
       </c>
-      <c r="F139" t="n">
+      <c r="F139">
         <v>121.9166666666667</v>
       </c>
-      <c r="G139" t="n">
+      <c r="G139">
         <v>8.894444444444444</v>
       </c>
-      <c r="H139" t="n">
+      <c r="H139">
         <v>462.9723333333333</v>
       </c>
-      <c r="I139" t="n">
+      <c r="I139">
         <v>19.11100000000001</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="n">
+    <row r="140" spans="1:9">
+      <c r="A140">
         <v>982000453618849</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>13.96666666666667</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>17.99166666666667</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>65</v>
       </c>
-      <c r="E140" t="n">
+      <c r="E140">
         <v>5</v>
       </c>
-      <c r="F140" t="n">
+      <c r="F140">
         <v>55.75</v>
       </c>
-      <c r="G140" t="n">
+      <c r="G140">
         <v>16.18333333333333</v>
       </c>
-      <c r="H140" t="n">
+      <c r="H140">
         <v>369.9056666666667</v>
       </c>
-      <c r="I140" t="n">
+      <c r="I140">
         <v>-26.10566666666665</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="n">
+    <row r="141" spans="1:9">
+      <c r="A141">
         <v>982000453618850</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>20.24166666666666</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>16.8</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>24.66666666666667</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E141">
         <v>2.333333333333333</v>
       </c>
-      <c r="F141" t="n">
+      <c r="F141">
         <v>54.92777777777778</v>
       </c>
-      <c r="G141" t="n">
+      <c r="G141">
         <v>11.85555555555555</v>
       </c>
-      <c r="H141" t="n">
+      <c r="H141">
         <v>418.8096666666667</v>
       </c>
-      <c r="I141" t="n">
+      <c r="I141">
         <v>-8.333333333333334</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="n">
+    <row r="142" spans="1:9">
+      <c r="A142">
         <v>982000453618851</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>25.2</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>32.05833333333333</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>59</v>
       </c>
-      <c r="E142" t="n">
+      <c r="E142">
         <v>4.333333333333333</v>
       </c>
-      <c r="F142" t="n">
+      <c r="F142">
         <v>137.2</v>
       </c>
-      <c r="G142" t="n">
+      <c r="G142">
         <v>15.03888888888889</v>
       </c>
-      <c r="H142" t="n">
+      <c r="H142">
         <v>489.9916666666666</v>
       </c>
-      <c r="I142" t="n">
+      <c r="I142">
         <v>3.508333333333326</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="n">
+    <row r="143" spans="1:9">
+      <c r="A143">
         <v>982000453618852</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>24.175</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>21.38333333333334</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>32</v>
       </c>
-      <c r="E143" t="n">
+      <c r="E143">
         <v>2.666666666666667</v>
       </c>
-      <c r="F143" t="n">
+      <c r="F143">
         <v>87.48888888888889</v>
       </c>
-      <c r="G143" t="n">
+      <c r="G143">
         <v>6.327777777777778</v>
       </c>
-      <c r="H143" t="n">
+      <c r="H143">
         <v>661.111</v>
       </c>
-      <c r="I143" t="n">
+      <c r="I143">
         <v>-2.166666666666667</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="n">
+    <row r="144" spans="1:9">
+      <c r="A144">
         <v>982000453618853</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>21.75833333333334</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>18.38333333333333</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>56</v>
       </c>
-      <c r="E144" t="n">
+      <c r="E144">
         <v>3.666666666666667</v>
       </c>
-      <c r="F144" t="n">
+      <c r="F144">
         <v>64.37222222222222</v>
       </c>
-      <c r="G144" t="n">
+      <c r="G144">
         <v>18.57222222222222</v>
       </c>
-      <c r="H144" t="n">
+      <c r="H144">
         <v>383.5556666666666</v>
       </c>
-      <c r="I144" t="n">
+      <c r="I144">
         <v>6.5</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="n">
+    <row r="145" spans="1:9">
+      <c r="A145">
         <v>982000453618854</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>26.79166666666667</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>15.725</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>24</v>
       </c>
-      <c r="E145" t="n">
+      <c r="E145">
         <v>3.666666666666667</v>
       </c>
-      <c r="F145" t="n">
+      <c r="F145">
         <v>99.85000000000001</v>
       </c>
-      <c r="G145" t="n">
+      <c r="G145">
         <v>4.811111111111111</v>
       </c>
-      <c r="H145" t="n">
+      <c r="H145">
         <v>1546.325</v>
       </c>
-      <c r="I145" t="n">
+      <c r="I145">
         <v>-933.5500000000001</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="n">
+    <row r="146" spans="1:9">
+      <c r="A146">
         <v>982000453618855</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>9.516666666666667</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>21.85833333333333</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>15</v>
       </c>
-      <c r="E146" t="n">
+      <c r="E146">
         <v>3.666666666666667</v>
       </c>
-      <c r="F146" t="n">
+      <c r="F146">
         <v>31.13888888888889</v>
       </c>
-      <c r="G146" t="n">
+      <c r="G146">
         <v>15.08888888888889</v>
       </c>
-      <c r="H146" t="n">
+      <c r="H146">
         <v>482.611</v>
       </c>
-      <c r="I146" t="n">
+      <c r="I146">
         <v>3.5</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="n">
+    <row r="147" spans="1:9">
+      <c r="A147">
         <v>982000453618856</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>22.09166666666667</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>16.45</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>28.66666666666667</v>
       </c>
-      <c r="E147" t="n">
+      <c r="E147">
         <v>3.666666666666667</v>
       </c>
-      <c r="F147" t="n">
+      <c r="F147">
         <v>82.93333333333334</v>
       </c>
-      <c r="G147" t="n">
+      <c r="G147">
         <v>6.855555555555555</v>
       </c>
-      <c r="H147" t="n">
+      <c r="H147">
         <v>501.8473333333333</v>
       </c>
-      <c r="I147" t="n">
+      <c r="I147">
         <v>3.875</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="n">
+    <row r="148" spans="1:9">
+      <c r="A148">
         <v>982000453618857</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>27.34166666666667</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>30.08333333333333</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>51.66666666666666</v>
       </c>
-      <c r="E148" t="n">
+      <c r="E148">
         <v>5.333333333333333</v>
       </c>
-      <c r="F148" t="n">
+      <c r="F148">
         <v>98.39444444444445</v>
       </c>
-      <c r="G148" t="n">
+      <c r="G148">
         <v>24.23333333333333</v>
       </c>
-      <c r="H148" t="n">
+      <c r="H148">
         <v>554.375</v>
       </c>
-      <c r="I148" t="n">
+      <c r="I148">
         <v>5.611333333333353</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="n">
+    <row r="149" spans="1:9">
+      <c r="A149">
         <v>982000453618858</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>21.51666666666667</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>28.74166666666666</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>53.66666666666666</v>
       </c>
-      <c r="E149" t="n">
+      <c r="E149">
         <v>3</v>
       </c>
-      <c r="F149" t="n">
+      <c r="F149">
         <v>88.87222222222222</v>
       </c>
-      <c r="G149" t="n">
+      <c r="G149">
         <v>6.411111111111111</v>
       </c>
-      <c r="H149" t="n">
+      <c r="H149">
         <v>562.3056666666666</v>
       </c>
-      <c r="I149" t="n">
+      <c r="I149">
         <v>0.9166666666666666</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="n">
+    <row r="150" spans="1:9">
+      <c r="A150">
         <v>982000453618859</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>28.69166666666667</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>22.4</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>42.33333333333334</v>
       </c>
-      <c r="E150" t="n">
+      <c r="E150">
         <v>2</v>
       </c>
-      <c r="F150" t="n">
+      <c r="F150">
         <v>104.4666666666667</v>
       </c>
-      <c r="G150" t="n">
+      <c r="G150">
         <v>2.005555555555556</v>
       </c>
-      <c r="H150" t="n">
+      <c r="H150">
         <v>455.139</v>
       </c>
-      <c r="I150" t="n">
+      <c r="I150">
         <v>39.11100000000001</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="n">
+    <row r="151" spans="1:9">
+      <c r="A151">
         <v>982000453618860</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>23.1</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>22.6</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>26.66666666666667</v>
       </c>
-      <c r="E151" t="n">
+      <c r="E151">
         <v>4</v>
       </c>
-      <c r="F151" t="n">
+      <c r="F151">
         <v>117.6</v>
       </c>
-      <c r="G151" t="n">
+      <c r="G151">
         <v>8.194444444444445</v>
       </c>
-      <c r="H151" t="n">
+      <c r="H151">
         <v>488.1833333333333</v>
       </c>
-      <c r="I151" t="n">
+      <c r="I151">
         <v>11.58333333333333</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="n">
+    <row r="152" spans="1:9">
+      <c r="A152">
         <v>982000453618861</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>19.59166666666667</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>13.05833333333333</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>18.33333333333333</v>
       </c>
-      <c r="E152" t="n">
+      <c r="E152">
         <v>2</v>
       </c>
-      <c r="F152" t="n">
+      <c r="F152">
         <v>72.98333333333333</v>
       </c>
-      <c r="G152" t="n">
+      <c r="G152">
         <v>7.033333333333334</v>
       </c>
-      <c r="H152" t="n">
+      <c r="H152">
         <v>502.639</v>
       </c>
-      <c r="I152" t="n">
+      <c r="I152">
         <v>1.25</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="n">
+    <row r="153" spans="1:9">
+      <c r="A153">
         <v>982000453618862</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>18.075</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>30.95833333333333</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>51.66666666666666</v>
       </c>
-      <c r="E153" t="n">
+      <c r="E153">
         <v>6</v>
       </c>
-      <c r="F153" t="n">
+      <c r="F153">
         <v>60.17222222222222</v>
       </c>
-      <c r="G153" t="n">
+      <c r="G153">
         <v>33.83333333333334</v>
       </c>
-      <c r="H153" t="n">
+      <c r="H153">
         <v>349.6713333333334</v>
       </c>
-      <c r="I153" t="n">
+      <c r="I153">
         <v>3.791666666666667</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="n">
+    <row r="154" spans="1:9">
+      <c r="A154">
         <v>982000453618863</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>21.36666666666666</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>24.06666666666667</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>44.66666666666666</v>
       </c>
-      <c r="E154" t="n">
+      <c r="E154">
         <v>3</v>
       </c>
-      <c r="F154" t="n">
+      <c r="F154">
         <v>101.3611111111111</v>
       </c>
-      <c r="G154" t="n">
+      <c r="G154">
         <v>5.683333333333334</v>
       </c>
-      <c r="H154" t="n">
+      <c r="H154">
         <v>570.889</v>
       </c>
-      <c r="I154" t="n">
+      <c r="I154">
         <v>1.166666666666667</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="n">
+    <row r="155" spans="1:9">
+      <c r="A155">
         <v>982000453618864</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>26.66666666666667</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>20.19166666666667</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>34</v>
       </c>
-      <c r="E155" t="n">
+      <c r="E155">
         <v>2.666666666666667</v>
       </c>
-      <c r="F155" t="n">
+      <c r="F155">
         <v>103.75</v>
       </c>
-      <c r="G155" t="n">
+      <c r="G155">
         <v>4.566666666666666</v>
       </c>
-      <c r="H155" t="n">
+      <c r="H155">
         <v>507.6113333333333</v>
       </c>
-      <c r="I155" t="n">
+      <c r="I155">
         <v>4.388999999999991</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="n">
+    <row r="156" spans="1:9">
+      <c r="A156">
         <v>982000453618865</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>26.38333333333334</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>25.95</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>40</v>
       </c>
-      <c r="E156" t="n">
+      <c r="E156">
         <v>2.666666666666667</v>
       </c>
-      <c r="F156" t="n">
+      <c r="F156">
         <v>71.21111111111111</v>
       </c>
-      <c r="G156" t="n">
+      <c r="G156">
         <v>3.983333333333333</v>
       </c>
-      <c r="H156" t="n">
+      <c r="H156">
         <v>580.2083333333334</v>
       </c>
-      <c r="I156" t="n">
+      <c r="I156">
         <v>-0.875</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="n">
+    <row r="157" spans="1:9">
+      <c r="A157">
         <v>982000453618866</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>16.16666666666667</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>48.96666666666667</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>25</v>
       </c>
-      <c r="E157" t="n">
+      <c r="E157">
         <v>5.333333333333333</v>
       </c>
-      <c r="F157" t="n">
+      <c r="F157">
         <v>61.87222222222223</v>
       </c>
-      <c r="G157" t="n">
+      <c r="G157">
         <v>21.96111111111111</v>
       </c>
-      <c r="H157" t="n">
+      <c r="H157">
         <v>565.677</v>
       </c>
-      <c r="I157" t="n">
+      <c r="I157">
         <v>82.54533333333335</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="n">
+    <row r="158" spans="1:9">
+      <c r="A158">
         <v>982000453618867</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>19.83333333333333</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>18.61666666666667</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>29</v>
       </c>
-      <c r="E158" t="n">
+      <c r="E158">
         <v>4.666666666666667</v>
       </c>
-      <c r="F158" t="n">
+      <c r="F158">
         <v>81.72222222222223</v>
       </c>
-      <c r="G158" t="n">
+      <c r="G158">
         <v>12.96666666666667</v>
       </c>
-      <c r="H158" t="n">
+      <c r="H158">
         <v>613.8833333333333</v>
       </c>
-      <c r="I158" t="n">
+      <c r="I158">
         <v>-2.966666666666659</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="n">
+    <row r="159" spans="1:9">
+      <c r="A159">
         <v>982000453618868</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>19.56666666666667</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>23.775</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>22.33333333333333</v>
       </c>
-      <c r="E159" t="n">
+      <c r="E159">
         <v>4.333333333333333</v>
       </c>
-      <c r="F159" t="n">
+      <c r="F159">
         <v>87.62777777777778</v>
       </c>
-      <c r="G159" t="n">
+      <c r="G159">
         <v>8.144444444444444</v>
       </c>
-      <c r="H159" t="n">
+      <c r="H159">
         <v>595.4026666666667</v>
       </c>
-      <c r="I159" t="n">
+      <c r="I159">
         <v>-50.72233333333335</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="n">
+    <row r="160" spans="1:9">
+      <c r="A160">
         <v>982000453618869</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>9.866666666666667</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>7.158333333333334</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>47.33333333333334</v>
       </c>
-      <c r="E160" t="n">
+      <c r="E160">
         <v>3</v>
       </c>
-      <c r="F160" t="n">
+      <c r="F160">
         <v>44.85</v>
       </c>
-      <c r="G160" t="n">
+      <c r="G160">
         <v>2.633333333333333</v>
       </c>
-      <c r="H160" t="n">
+      <c r="H160">
         <v>355.375</v>
       </c>
-      <c r="I160" t="n">
+      <c r="I160">
         <v>-3.5</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="n">
+    <row r="161" spans="1:9">
+      <c r="A161">
         <v>982000453618870</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>7.441666666666666</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>12.45</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>35</v>
       </c>
-      <c r="E161" t="n">
+      <c r="E161">
         <v>5</v>
       </c>
-      <c r="F161" t="n">
+      <c r="F161">
         <v>77.47222222222223</v>
       </c>
-      <c r="G161" t="n">
+      <c r="G161">
         <v>12.51666666666667</v>
       </c>
-      <c r="H161" t="n">
+      <c r="H161">
         <v>357.375</v>
       </c>
-      <c r="I161" t="n">
+      <c r="I161">
         <v>38.25</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="n">
+    <row r="162" spans="1:9">
+      <c r="A162">
         <v>982000453618871</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>16.58333333333333</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>13.78333333333333</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>35.33333333333334</v>
       </c>
-      <c r="E162" t="n">
+      <c r="E162">
         <v>2.666666666666667</v>
       </c>
-      <c r="F162" t="n">
+      <c r="F162">
         <v>70.47777777777777</v>
       </c>
-      <c r="G162" t="n">
+      <c r="G162">
         <v>3.522222222222222</v>
       </c>
-      <c r="H162" t="n">
+      <c r="H162">
         <v>461.0556666666666</v>
       </c>
-      <c r="I162" t="n">
+      <c r="I162">
         <v>5.777666666666676</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="n">
+    <row r="163" spans="1:9">
+      <c r="A163">
         <v>982000453618872</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>18.20833333333333</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>21.83333333333333</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>29.33333333333333</v>
       </c>
-      <c r="E163" t="n">
+      <c r="E163">
         <v>4</v>
       </c>
-      <c r="F163" t="n">
+      <c r="F163">
         <v>73.17222222222222</v>
       </c>
-      <c r="G163" t="n">
+      <c r="G163">
         <v>2.538888888888889</v>
       </c>
-      <c r="H163" t="n">
+      <c r="H163">
         <v>532.9583333333334</v>
       </c>
-      <c r="I163" t="n">
+      <c r="I163">
         <v>4.041666666666667</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="n">
+    <row r="164" spans="1:9">
+      <c r="A164">
         <v>982000453618873</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>25.83333333333333</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>26.30833333333333</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>29.33333333333333</v>
       </c>
-      <c r="E164" t="n">
+      <c r="E164">
         <v>3.666666666666667</v>
       </c>
-      <c r="F164" t="n">
+      <c r="F164">
         <v>95.35555555555555</v>
       </c>
-      <c r="G164" t="n">
+      <c r="G164">
         <v>5.48888888888889</v>
       </c>
-      <c r="H164" t="n">
+      <c r="H164">
         <v>587.2223333333333</v>
       </c>
-      <c r="I164" t="n">
+      <c r="I164">
         <v>-2.097333333333343</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="n">
+    <row r="165" spans="1:9">
+      <c r="A165">
         <v>982000453618874</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>27.40833333333333</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>32.74166666666667</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>40.33333333333334</v>
       </c>
-      <c r="E165" t="n">
+      <c r="E165">
         <v>3</v>
       </c>
-      <c r="F165" t="n">
+      <c r="F165">
         <v>111.9388888888889</v>
       </c>
-      <c r="G165" t="n">
+      <c r="G165">
         <v>4.455555555555556</v>
       </c>
-      <c r="H165" t="n">
+      <c r="H165">
         <v>607.1666666666666</v>
       </c>
-      <c r="I165" t="n">
+      <c r="I165">
         <v>6.625</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="n">
+    <row r="166" spans="1:9">
+      <c r="A166">
         <v>982000453618875</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>27.55</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>20.24166666666667</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>56</v>
       </c>
-      <c r="E166" t="n">
+      <c r="E166">
         <v>3.333333333333333</v>
       </c>
-      <c r="F166" t="n">
+      <c r="F166">
         <v>130.0611111111111</v>
       </c>
-      <c r="G166" t="n">
+      <c r="G166">
         <v>4.277777777777778</v>
       </c>
-      <c r="H166" t="n">
+      <c r="H166">
         <v>524.125</v>
       </c>
-      <c r="I166" t="n">
+      <c r="I166">
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="n">
+    <row r="167" spans="1:9">
+      <c r="A167">
         <v>982000453618876</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>14.38333333333333</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>17.54166666666667</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>22.33333333333333</v>
       </c>
-      <c r="E167" t="n">
+      <c r="E167">
         <v>2</v>
       </c>
-      <c r="F167" t="n">
+      <c r="F167">
         <v>40.11666666666667</v>
       </c>
-      <c r="G167" t="n">
+      <c r="G167">
         <v>2.8</v>
       </c>
-      <c r="H167" t="n">
+      <c r="H167">
         <v>588.6666666666666</v>
       </c>
-      <c r="I167" t="n">
+      <c r="I167">
         <v>-0.08333333333333333</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="n">
+    <row r="168" spans="1:9">
+      <c r="A168">
         <v>982000453618877</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>13.29166666666667</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>22.25833333333334</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>32.33333333333334</v>
       </c>
-      <c r="E168" t="n">
+      <c r="E168">
         <v>5.666666666666667</v>
       </c>
-      <c r="F168" t="n">
+      <c r="F168">
         <v>57.01111111111111</v>
       </c>
-      <c r="G168" t="n">
+      <c r="G168">
         <v>4.477777777777777</v>
       </c>
-      <c r="H168" t="n">
+      <c r="H168">
         <v>387.881</v>
       </c>
-      <c r="I168" t="n">
+      <c r="I168">
         <v>6</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="n">
+    <row r="169" spans="1:9">
+      <c r="A169">
         <v>982000453618878</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>23.38333333333334</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>19.35833333333333</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>38</v>
       </c>
-      <c r="E169" t="n">
+      <c r="E169">
         <v>2.333333333333333</v>
       </c>
-      <c r="F169" t="n">
+      <c r="F169">
         <v>122.85</v>
       </c>
-      <c r="G169" t="n">
+      <c r="G169">
         <v>2.977777777777778</v>
       </c>
-      <c r="H169" t="n">
+      <c r="H169">
         <v>495.1666666666667</v>
       </c>
-      <c r="I169" t="n">
+      <c r="I169">
         <v>6</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="n">
+    <row r="170" spans="1:9">
+      <c r="A170">
         <v>982000453618879</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>24.325</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>25.325</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>42.66666666666666</v>
       </c>
-      <c r="E170" t="n">
+      <c r="E170">
         <v>4.666666666666667</v>
       </c>
-      <c r="F170" t="n">
+      <c r="F170">
         <v>88.81666666666666</v>
       </c>
-      <c r="G170" t="n">
+      <c r="G170">
         <v>8.894444444444444</v>
       </c>
-      <c r="H170" t="n">
+      <c r="H170">
         <v>562.2333333333333</v>
       </c>
-      <c r="I170" t="n">
+      <c r="I170">
         <v>-0.03333333333334091</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="n">
+    <row r="171" spans="1:9">
+      <c r="A171">
         <v>982000453618880</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>11.64166666666667</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>22.05</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>21</v>
       </c>
-      <c r="E171" t="n">
+      <c r="E171">
         <v>5.333333333333333</v>
       </c>
-      <c r="F171" t="n">
+      <c r="F171">
         <v>54.96666666666666</v>
       </c>
-      <c r="G171" t="n">
+      <c r="G171">
         <v>18.85555555555556</v>
       </c>
-      <c r="H171" t="n">
+      <c r="H171">
         <v>507.854</v>
       </c>
-      <c r="I171" t="n">
+      <c r="I171">
         <v>2.354333333333329</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="n">
+    <row r="172" spans="1:9">
+      <c r="A172">
         <v>982000453618881</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>18.45833333333333</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>24.06666666666667</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>29.66666666666667</v>
       </c>
-      <c r="E172" t="n">
+      <c r="E172">
         <v>3.333333333333333</v>
       </c>
-      <c r="F172" t="n">
+      <c r="F172">
         <v>61.50555555555556</v>
       </c>
-      <c r="G172" t="n">
+      <c r="G172">
         <v>7.100000000000001</v>
       </c>
-      <c r="H172" t="n">
+      <c r="H172">
         <v>538.361</v>
       </c>
-      <c r="I172" t="n">
+      <c r="I172">
         <v>-20.61099999999999</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="n">
+    <row r="173" spans="1:9">
+      <c r="A173">
         <v>982000453618882</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>21.15833333333333</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>34.44166666666667</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>64.66666666666667</v>
       </c>
-      <c r="E173" t="n">
+      <c r="E173">
         <v>6.666666666666667</v>
       </c>
-      <c r="F173" t="n">
+      <c r="F173">
         <v>97.62777777777778</v>
       </c>
-      <c r="G173" t="n">
+      <c r="G173">
         <v>49.12222222222223</v>
       </c>
-      <c r="H173" t="n">
+      <c r="H173">
         <v>689.5</v>
       </c>
-      <c r="I173" t="n">
+      <c r="I173">
         <v>-260.6113333333333</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="n">
+    <row r="174" spans="1:9">
+      <c r="A174">
         <v>982000453618883</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>18.18333333333333</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>17.49166666666667</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>24.33333333333333</v>
       </c>
-      <c r="E174" t="n">
+      <c r="E174">
         <v>3</v>
       </c>
-      <c r="F174" t="n">
+      <c r="F174">
         <v>76.31111111111112</v>
       </c>
-      <c r="G174" t="n">
+      <c r="G174">
         <v>12.35</v>
       </c>
-      <c r="H174" t="n">
+      <c r="H174">
         <v>514.0693333333334</v>
       </c>
-      <c r="I174" t="n">
+      <c r="I174">
         <v>4.791666666666667</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="n">
+    <row r="175" spans="1:9">
+      <c r="A175">
         <v>982000453618884</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>23.85833333333333</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>20.70833333333333</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>62.33333333333334</v>
       </c>
-      <c r="E175" t="n">
+      <c r="E175">
         <v>4</v>
       </c>
-      <c r="F175" t="n">
+      <c r="F175">
         <v>45.18888888888889</v>
       </c>
-      <c r="G175" t="n">
+      <c r="G175">
         <v>5.666666666666667</v>
       </c>
-      <c r="H175" t="n">
+      <c r="H175">
         <v>366.8333333333333</v>
       </c>
-      <c r="I175" t="n">
+      <c r="I175">
         <v>-29.66666666666667</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="n">
+    <row r="176" spans="1:9">
+      <c r="A176">
         <v>982000453618885</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>20.9</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>25.21666666666667</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>15.33333333333333</v>
       </c>
-      <c r="E176" t="n">
+      <c r="E176">
         <v>3.333333333333333</v>
       </c>
-      <c r="F176" t="n">
+      <c r="F176">
         <v>88.66666666666667</v>
       </c>
-      <c r="G176" t="n">
+      <c r="G176">
         <v>4.899999999999999</v>
       </c>
-      <c r="H176" t="n">
+      <c r="H176">
         <v>645.875</v>
       </c>
-      <c r="I176" t="n">
+      <c r="I176">
         <v>-0.04166666666666666</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" t="n">
+    <row r="177" spans="1:9">
+      <c r="A177">
         <v>982000453618886</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>18.19166666666667</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>29.475</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>29</v>
       </c>
-      <c r="E177" t="n">
+      <c r="E177">
         <v>4</v>
       </c>
-      <c r="F177" t="n">
+      <c r="F177">
         <v>69.20555555555556</v>
       </c>
-      <c r="G177" t="n">
+      <c r="G177">
         <v>15.65</v>
       </c>
-      <c r="H177" t="n">
+      <c r="H177">
         <v>471.4583333333333</v>
       </c>
-      <c r="I177" t="n">
+      <c r="I177">
         <v>4.083333333333333</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="n">
+    <row r="178" spans="1:9">
+      <c r="A178">
         <v>982000453618887</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>19.19166666666667</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>28.98333333333333</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>25</v>
       </c>
-      <c r="E178" t="n">
+      <c r="E178">
         <v>5.333333333333333</v>
       </c>
-      <c r="F178" t="n">
+      <c r="F178">
         <v>72.79444444444444</v>
       </c>
-      <c r="G178" t="n">
+      <c r="G178">
         <v>5.022222222222222</v>
       </c>
-      <c r="H178" t="n">
+      <c r="H178">
         <v>505.5916666666667</v>
       </c>
-      <c r="I178" t="n">
+      <c r="I178">
         <v>3.458333333333333</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="n">
+    <row r="179" spans="1:9">
+      <c r="A179">
         <v>982000453618888</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>17.55</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>17.80833333333333</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>26</v>
       </c>
-      <c r="E179" t="n">
+      <c r="E179">
         <v>1.666666666666667</v>
       </c>
-      <c r="F179" t="n">
+      <c r="F179">
         <v>54.88333333333333</v>
       </c>
-      <c r="G179" t="n">
+      <c r="G179">
         <v>3.177777777777778</v>
       </c>
-      <c r="H179" t="n">
+      <c r="H179">
         <v>585.1666666666666</v>
       </c>
-      <c r="I179" t="n">
+      <c r="I179">
         <v>-2.166666666666667</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="n">
+    <row r="180" spans="1:9">
+      <c r="A180">
         <v>982000453618889</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>30.19166666666666</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>26.075</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>26</v>
       </c>
-      <c r="E180" t="n">
+      <c r="E180">
         <v>4.333333333333333</v>
       </c>
-      <c r="F180" t="n">
+      <c r="F180">
         <v>115.8055555555555</v>
       </c>
-      <c r="G180" t="n">
+      <c r="G180">
         <v>15.31111111111111</v>
       </c>
-      <c r="H180" t="n">
+      <c r="H180">
         <v>602.6333333333333</v>
       </c>
-      <c r="I180" t="n">
+      <c r="I180">
         <v>8.599999999999985</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="n">
+    <row r="181" spans="1:9">
+      <c r="A181">
         <v>982000453618890</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>29.05833333333333</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>23.64166666666667</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>27</v>
       </c>
-      <c r="E181" t="n">
+      <c r="E181">
         <v>3.333333333333333</v>
       </c>
-      <c r="F181" t="n">
+      <c r="F181">
         <v>125.9111111111111</v>
       </c>
-      <c r="G181" t="n">
+      <c r="G181">
         <v>7.505555555555556</v>
       </c>
-      <c r="H181" t="n">
+      <c r="H181">
         <v>598.264</v>
       </c>
-      <c r="I181" t="n">
+      <c r="I181">
         <v>3.875</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" t="n">
+    <row r="182" spans="1:9">
+      <c r="A182">
         <v>982000453618891</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>12.98333333333333</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>13.13333333333333</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>32</v>
       </c>
-      <c r="E182" t="n">
+      <c r="E182">
         <v>3</v>
       </c>
-      <c r="F182" t="n">
+      <c r="F182">
         <v>45.70000000000001</v>
       </c>
-      <c r="G182" t="n">
+      <c r="G182">
         <v>9.005555555555555</v>
       </c>
-      <c r="H182" t="n">
+      <c r="H182">
         <v>386.3333333333333</v>
       </c>
-      <c r="I182" t="n">
+      <c r="I182">
         <v>1.666666666666667</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>